--- a/RunGD_res/跑团H5分享链接的文字需求.xlsx
+++ b/RunGD_res/跑团H5分享链接的文字需求.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
-    <t>分享界面</t>
-  </si>
-  <si>
     <t>标题</t>
   </si>
   <si>
@@ -268,6 +265,13 @@
     <t>大图模式</t>
     <rPh sb="0" eb="1">
       <t>da'tu'mo'shi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享链接</t>
+    <rPh sb="2" eb="3">
+      <t>lian'jie</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -621,7 +625,7 @@
   <dimension ref="D3:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,114 +637,114 @@
   <sheetData>
     <row r="3" spans="4:7" ht="17" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:7" ht="17" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="4:7" ht="17" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="17" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="17" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="17" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="17" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="4:7" ht="17" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="4:7" ht="17" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
